--- a/modules/run_count/area.xlsx
+++ b/modules/run_count/area.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\00_git\PaddleDetection\modules\run_count\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EB0A4A-8B3E-4F96-BD7F-381C03275171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96614467-13D0-4D31-8363-709FC16C8FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3150" windowWidth="16440" windowHeight="28590" xr2:uid="{628EE1CF-ECB2-8444-ACAB-02F669F67B35}"/>
+    <workbookView xWindow="2085" yWindow="915" windowWidth="16875" windowHeight="13770" activeTab="1" xr2:uid="{628EE1CF-ECB2-8444-ACAB-02F669F67B35}"/>
   </bookViews>
   <sheets>
     <sheet name="after" sheetId="1" r:id="rId1"/>
+    <sheet name="before" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
   <si>
     <t>エリア名</t>
   </si>
@@ -81,6 +82,27 @@
   </si>
   <si>
     <t>記載台5</t>
+  </si>
+  <si>
+    <t>記載台1</t>
+    <rPh sb="0" eb="3">
+      <t>キサイダイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>受付1</t>
+    <rPh sb="0" eb="2">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>受付2</t>
+    <rPh sb="0" eb="2">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -485,7 +507,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE33589B-D5D5-4B47-BD56-5665EF17945B}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
   <sheetData>
@@ -680,4 +704,156 @@
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA741BF8-418E-4FC4-B782-D13255565B9C}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1260</v>
+      </c>
+      <c r="D2" s="2">
+        <v>700</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>700</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1320</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1375</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1740</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1280</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1930</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1375</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1330</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2220</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1375</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1500</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2220</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>500</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1200</v>
+      </c>
+      <c r="D7" s="2">
+        <v>775</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1030</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1230</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1530</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>